--- a/va_facility_data_2025-02-20/Kirksville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kirksville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kirksville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kirksville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfa161b2eb2e641b18f095d5fea10317f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R931ff2b151544aef9e2b5e29dcc3eeb8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R87ee5b9e32984df0b7234ba8cd6c7f4b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rec4d9804c7744a75b7abe5a38d464f22"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbf2df594d9cb4fabba3ad1b2ac5660a6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R223493bcb164461199835cb2ff8c2034"/>
   </x:sheets>
 </x:workbook>
 </file>
